--- a/data/final_list.xlsx
+++ b/data/final_list.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiteshg\Code\ratingsai\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{23EC3851-D51B-4AE5-AD13-88AA162BDECF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="3228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="3228">
   <si>
     <t>Industry</t>
   </si>
@@ -9714,7 +9710,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9778,7 +9774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9788,6 +9784,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9848,7 +9845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -9900,7 +9897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10094,18 +10091,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AB344B-57AE-4B50-9965-F68D2940950A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32307,11 +32304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D875A-56CF-4BC5-A87E-36CD63E3BBF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32614,4 +32611,1279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIFS(Sheet1!N:N,A2)</f>
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2/$B$18*100</f>
+        <v>7.2234762979683964</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIFS(Sheet1!N:N,A3)</f>
+        <v>29</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C17" si="0">B3/$B$18*100</f>
+        <v>6.5462753950338595</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E3)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Sheet1!N:N,A4)</f>
+        <v>46</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>10.383747178329571</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIFS(Sheet1!N:N,A5)</f>
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8374717832957108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIFS(Sheet1!N:N,A6)</f>
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6433408577878108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIFS(Sheet1!N:N,A7)</f>
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5778781038374721</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIFS(Sheet1!N:N,A8)</f>
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8690744920993225</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIFS(Sheet1!N:N,A9)</f>
+        <v>50</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>11.286681715575622</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIFS(Sheet1!N:N,A10)</f>
+        <v>60</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>13.544018058690746</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIFS(Sheet1!N:N,A11)</f>
+        <v>51</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>11.512415349887133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIFS(Sheet1!N:N,A12)</f>
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1264108352144468</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIFS(Sheet1!N:N,A13)</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIFS(Sheet1!N:N,A14)</f>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1602708803611739</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIFS(Sheet1!N:N,A15)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45146726862302478</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIFS(Sheet1!N:N,A16)</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4830699774266365</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E16)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIFS(Sheet1!N:N,A17)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22573363431151239</v>
+      </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>443</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E19)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E21)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E24)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E26)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E27)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E28)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E29)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E30)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E31)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E32)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E33)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E34)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>422</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E35)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>444</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E36)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>451</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E37)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E38)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>468</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E39)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>476</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E40)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E41)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>505</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E42)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E43)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>536</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E45)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>558</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>574</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>585</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E48)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>593</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E49)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>608</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>643</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E51)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>652</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E52)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>662</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E53)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>685</v>
+      </c>
+      <c r="F54">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E54)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>700</v>
+      </c>
+      <c r="F55">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E55)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>715</v>
+      </c>
+      <c r="F56">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E56)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>723</v>
+      </c>
+      <c r="F57">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E57)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>730</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E58)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>745</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E60)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>753</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>774</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>801</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>809</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E64)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>817</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E65)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>841</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E66)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>869</v>
+      </c>
+      <c r="F67">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E67)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>916</v>
+      </c>
+      <c r="F68">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E68)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>924</v>
+      </c>
+      <c r="F69">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E69)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F70">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E70)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>962</v>
+      </c>
+      <c r="F71">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E71)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>976</v>
+      </c>
+      <c r="F72">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E72)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>999</v>
+      </c>
+      <c r="F73">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E73)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F74">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E74)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F75">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E75)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F76">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E76)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F77">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E77)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F78">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E78)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F79">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F80">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E80)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F81">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E81)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F82">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F83">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F84">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E84)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F85">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F86">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E86)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F87">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F88">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F89">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E89)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F90">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E90)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F91">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E91)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F92">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F93">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E93)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F94">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F95">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E95)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F96">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E96)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F97">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E97)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F98">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E98)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F99">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E99)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F100">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E100)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F101">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E101)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F102">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F103">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E103)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F104">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E104)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F105">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E105)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F106">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E106)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F107">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E107)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F108">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E108)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F109">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E109)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F110">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E110)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F111">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E111)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F112">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E112)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F113">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E113)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F114">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E114)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F115">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E115)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F116">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E116)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F117">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E117)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F118">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E118)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>3147</v>
+      </c>
+      <c r="F119">
+        <f>COUNTIFS(Sheet1!O:O,Sheet3!E119)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f>SUM(F2:F119)</f>
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/final_list.xlsx
+++ b/data/final_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10091,7 +10091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10101,8 +10101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32617,7 +32617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
